--- a/src/stp/database/2024-mens-euro.xlsx
+++ b/src/stp/database/2024-mens-euro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EA7752-4F3C-2347-9210-7304D509F8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AA47BC-5EA9-BC46-BE0F-FE29CC8E9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -1414,7 +1414,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1979,13 +1985,17 @@
     <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time"/>
-    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team"/>
-    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team"/>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="1">
+      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="0">
+      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2022,23 +2032,23 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED8799A6-365F-4A26-BA2F-A641D2C5169B}" name="Table3" displayName="Table3" ref="A1:L52" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED8799A6-365F-4A26-BA2F-A641D2C5169B}" name="Table3" displayName="Table3" ref="A1:L52" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
   <autoFilter ref="A1:L52" xr:uid="{ED8799A6-365F-4A26-BA2F-A641D2C5169B}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{BAB1D5AD-1C7C-4EFE-82F6-1435AF03D3AC}" name="match" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{A8C9726C-4E60-4863-AFEE-4E5DE76EF2FC}" name="group" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{044764B1-515C-4F7E-A4D8-57FB81597686}" name="date" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{AC9550AC-F5D1-4B32-B429-E544654EF465}" name="home" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{0474FF1E-8BEE-4128-80B3-AFC491D890EE}" name="away" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{EBD9C4C3-BF3C-4727-9B28-98AF2F29BF41}" name="location" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{873889BC-E5CA-49C4-82B0-000FD02CF5A6}" name="location.code" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{BAB1D5AD-1C7C-4EFE-82F6-1435AF03D3AC}" name="match" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{A8C9726C-4E60-4863-AFEE-4E5DE76EF2FC}" name="group" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{044764B1-515C-4F7E-A4D8-57FB81597686}" name="date" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{AC9550AC-F5D1-4B32-B429-E544654EF465}" name="home" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{0474FF1E-8BEE-4128-80B3-AFC491D890EE}" name="away" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{EBD9C4C3-BF3C-4727-9B28-98AF2F29BF41}" name="location" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{873889BC-E5CA-49C4-82B0-000FD02CF5A6}" name="location.code" dataDxfId="22">
       <calculatedColumnFormula>INDEX('#venues'!$A$2:$A$11,MATCH(F2,'#venues'!$B$2:$B$11,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4FCA44E7-14CF-4A6B-B1C2-A4AAE0EAD6FE}" name="home.code" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{1B456C7A-C24D-4957-9047-6049558EC1BB}" name="away.code" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{DBBEC4FC-2936-43AB-BA08-B51FB79E34B4}" name="home.seed" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{0625C7B9-E3D9-441B-BE37-8BB979ACAE6C}" name="away.seed" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{AE9B0C49-E0A5-4932-A009-B682DFA346F3}" name="date.utc" dataDxfId="15">
+    <tableColumn id="8" xr3:uid="{4FCA44E7-14CF-4A6B-B1C2-A4AAE0EAD6FE}" name="home.code" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{1B456C7A-C24D-4957-9047-6049558EC1BB}" name="away.code" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{DBBEC4FC-2936-43AB-BA08-B51FB79E34B4}" name="home.seed" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{0625C7B9-E3D9-441B-BE37-8BB979ACAE6C}" name="away.seed" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{AE9B0C49-E0A5-4932-A009-B682DFA346F3}" name="date.utc" dataDxfId="17">
       <calculatedColumnFormula>'#matches'!$C2-TIME(2,0,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2047,12 +2057,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3178B136-3EC2-4340-886E-8333B36E4711}" name="Table5" displayName="Table5" ref="A1:C25" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3178B136-3EC2-4340-886E-8333B36E4711}" name="Table5" displayName="Table5" ref="A1:C25" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:C25" xr:uid="{3178B136-3EC2-4340-886E-8333B36E4711}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{93F9FA11-225D-47EE-BD72-A2464B3A34B2}" name="seed" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{DAFBB0AB-50A5-430D-8FF9-E6D2B5AC0D22}" name="team" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{1D1C8BC8-C8E2-451B-8C51-3E161D3D5C7F}" name="team.lower" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{93F9FA11-225D-47EE-BD72-A2464B3A34B2}" name="seed" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{DAFBB0AB-50A5-430D-8FF9-E6D2B5AC0D22}" name="team" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1D1C8BC8-C8E2-451B-8C51-3E161D3D5C7F}" name="team.lower" dataDxfId="12">
       <calculatedColumnFormula>LOWER('#seeds'!$B2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2061,22 +2071,22 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1A16B009-D4AC-4613-A3C6-0D259E31D7AA}" name="Table6" displayName="Table6" ref="A1:B86" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1A16B009-D4AC-4613-A3C6-0D259E31D7AA}" name="Table6" displayName="Table6" ref="A1:B86" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:B86" xr:uid="{1A16B009-D4AC-4613-A3C6-0D259E31D7AA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CDD0DBC0-5E6E-4173-A274-6304F51E6CDC}" name="key" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{43497F7A-6B16-4F89-BF79-3045159ABF5F}" name="en" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CDD0DBC0-5E6E-4173-A274-6304F51E6CDC}" name="key" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{43497F7A-6B16-4F89-BF79-3045159ABF5F}" name="en" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DEC1AC93-5179-4525-B9F9-7702667A847A}" name="Table8" displayName="Table8" ref="A1:B11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DEC1AC93-5179-4525-B9F9-7702667A847A}" name="Table8" displayName="Table8" ref="A1:B11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:B11" xr:uid="{DEC1AC93-5179-4525-B9F9-7702667A847A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C4B1A771-A4B3-4200-BCF4-CEED1AA8D41E}" name="venue" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{5598DA99-A772-466E-AF3B-D23CBCB21B1F}" name="city" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C4B1A771-A4B3-4200-BCF4-CEED1AA8D41E}" name="venue" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5598DA99-A772-466E-AF3B-D23CBCB21B1F}" name="city" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2381,7 +2391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2829,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2893,6 +2903,14 @@
       <c r="E2">
         <v>9</v>
       </c>
+      <c r="F2" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>GER</v>
+      </c>
+      <c r="G2" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SCO</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2914,6 +2932,14 @@
       <c r="E3">
         <v>2</v>
       </c>
+      <c r="F3" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>HUN</v>
+      </c>
+      <c r="G3" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SUI</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2935,6 +2961,14 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ESP</v>
+      </c>
+      <c r="G4" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CRO</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2956,6 +2990,14 @@
       <c r="E5">
         <v>3</v>
       </c>
+      <c r="F5" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ITA</v>
+      </c>
+      <c r="G5" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ALB</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2977,6 +3019,14 @@
       <c r="E6">
         <v>6</v>
       </c>
+      <c r="F6" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SRB</v>
+      </c>
+      <c r="G6" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ENG</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2998,6 +3048,14 @@
       <c r="E7">
         <v>10</v>
       </c>
+      <c r="F7" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SVN</v>
+      </c>
+      <c r="G7" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>DEN</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3019,6 +3077,14 @@
       <c r="E8">
         <v>7</v>
       </c>
+      <c r="F8" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>POL</v>
+      </c>
+      <c r="G8" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>NED</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3040,6 +3106,14 @@
       <c r="E9">
         <v>4</v>
       </c>
+      <c r="F9" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>AUT</v>
+      </c>
+      <c r="G9" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>FRA</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3061,6 +3135,14 @@
       <c r="E10">
         <v>5</v>
       </c>
+      <c r="F10" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BEL</v>
+      </c>
+      <c r="G10" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SVK</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3082,6 +3164,14 @@
       <c r="E11">
         <v>9</v>
       </c>
+      <c r="F11" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ROM</v>
+      </c>
+      <c r="G11" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>UKR</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -3103,6 +3193,14 @@
       <c r="E12">
         <v>3</v>
       </c>
+      <c r="F12" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>TUR</v>
+      </c>
+      <c r="G12" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>GEO</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3124,6 +3222,14 @@
       <c r="E13">
         <v>8</v>
       </c>
+      <c r="F13" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>POR</v>
+      </c>
+      <c r="G13" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CZE</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3145,6 +3251,14 @@
       <c r="E14">
         <v>2</v>
       </c>
+      <c r="F14" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SCO</v>
+      </c>
+      <c r="G14" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SUI</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3166,6 +3280,14 @@
       <c r="E15">
         <v>10</v>
       </c>
+      <c r="F15" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>GER</v>
+      </c>
+      <c r="G15" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>HUN</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3187,6 +3309,14 @@
       <c r="E16">
         <v>7</v>
       </c>
+      <c r="F16" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CRO</v>
+      </c>
+      <c r="G16" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ALB</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3208,6 +3338,14 @@
       <c r="E17">
         <v>6</v>
       </c>
+      <c r="F17" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ESP</v>
+      </c>
+      <c r="G17" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ITA</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3229,6 +3367,14 @@
       <c r="E18">
         <v>5</v>
       </c>
+      <c r="F18" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>DEN</v>
+      </c>
+      <c r="G18" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ENG</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3250,6 +3396,14 @@
       <c r="E19">
         <v>9</v>
       </c>
+      <c r="F19" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SVN</v>
+      </c>
+      <c r="G19" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SRB</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3271,6 +3425,14 @@
       <c r="E20">
         <v>1</v>
       </c>
+      <c r="F20" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>POL</v>
+      </c>
+      <c r="G20" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>AUT</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3292,6 +3454,14 @@
       <c r="E21">
         <v>8</v>
       </c>
+      <c r="F21" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>NED</v>
+      </c>
+      <c r="G21" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>FRA</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3313,6 +3483,14 @@
       <c r="E22">
         <v>4</v>
       </c>
+      <c r="F22" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SVK</v>
+      </c>
+      <c r="G22" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>UKR</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3334,6 +3512,14 @@
       <c r="E23">
         <v>2</v>
       </c>
+      <c r="F23" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BEL</v>
+      </c>
+      <c r="G23" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ROM</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3355,6 +3541,14 @@
       <c r="E24">
         <v>3</v>
       </c>
+      <c r="F24" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>TUR</v>
+      </c>
+      <c r="G24" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>POR</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3376,6 +3570,14 @@
       <c r="E25">
         <v>7</v>
       </c>
+      <c r="F25" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>GEO</v>
+      </c>
+      <c r="G25" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CZE</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3397,6 +3599,14 @@
       <c r="E26">
         <v>5</v>
       </c>
+      <c r="F26" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SUI</v>
+      </c>
+      <c r="G26" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>GER</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3418,6 +3628,14 @@
       <c r="E27">
         <v>10</v>
       </c>
+      <c r="F27" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SCO</v>
+      </c>
+      <c r="G27" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>HUN</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -3439,6 +3657,14 @@
       <c r="E28">
         <v>4</v>
       </c>
+      <c r="F28" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ALB</v>
+      </c>
+      <c r="G28" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ESP</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3460,6 +3686,14 @@
       <c r="E29">
         <v>8</v>
       </c>
+      <c r="F29" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CRO</v>
+      </c>
+      <c r="G29" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ITA</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3481,6 +3715,14 @@
       <c r="E30">
         <v>2</v>
       </c>
+      <c r="F30" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ENG</v>
+      </c>
+      <c r="G30" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SVN</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3502,6 +3744,14 @@
       <c r="E31">
         <v>9</v>
       </c>
+      <c r="F31" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>DEN</v>
+      </c>
+      <c r="G31" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SRB</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3523,6 +3773,14 @@
       <c r="E32">
         <v>1</v>
       </c>
+      <c r="F32" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>NED</v>
+      </c>
+      <c r="G32" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>AUT</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3544,6 +3802,14 @@
       <c r="E33">
         <v>3</v>
       </c>
+      <c r="F33" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>FRA</v>
+      </c>
+      <c r="G33" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>POL</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3565,6 +3831,14 @@
       <c r="E34">
         <v>5</v>
       </c>
+      <c r="F34" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SVK</v>
+      </c>
+      <c r="G34" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ROM</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3586,6 +3860,14 @@
       <c r="E35">
         <v>10</v>
       </c>
+      <c r="F35" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>UKR</v>
+      </c>
+      <c r="G35" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BEL</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -3607,6 +3889,14 @@
       <c r="E36">
         <v>6</v>
       </c>
+      <c r="F36" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>GEO</v>
+      </c>
+      <c r="G36" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>POR</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3627,6 +3917,14 @@
       </c>
       <c r="E37">
         <v>7</v>
+      </c>
+      <c r="F37" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CZE</v>
+      </c>
+      <c r="G37" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>TUR</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>

--- a/src/stp/database/2024-mens-euro.xlsx
+++ b/src/stp/database/2024-mens-euro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AA47BC-5EA9-BC46-BE0F-FE29CC8E9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B659DBA-60DF-044D-B6A3-40B55C5C675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="408">
   <si>
     <t>A1</t>
   </si>
@@ -264,9 +264,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>team</t>
   </si>
   <si>
@@ -336,48 +333,6 @@
     <t>Deutschland</t>
   </si>
   <si>
-    <t>UEFA Euro 2024 in Germany</t>
-  </si>
-  <si>
-    <t>Eurocopa 2024 en Alemania</t>
-  </si>
-  <si>
-    <t>UEFA Euro 2024 in Germania</t>
-  </si>
-  <si>
-    <t>L'UEFA Euro 2024 en Allemagne</t>
-  </si>
-  <si>
-    <t>UEFA Euro 2024 in Deutschland</t>
-  </si>
-  <si>
-    <t>UEFA Euro 2024 in Duitsland</t>
-  </si>
-  <si>
-    <t>یوفا یورو 2024 آلمان</t>
-  </si>
-  <si>
-    <t>2024 Euro Schedule &amp; Score Card</t>
-  </si>
-  <si>
-    <t>Calendario y cuadro de mando de la Eurocopa 2024</t>
-  </si>
-  <si>
-    <t>Calendario e scorecard Euro 2024</t>
-  </si>
-  <si>
-    <t>Calendrier et carte de score de l’Euro 2024</t>
-  </si>
-  <si>
-    <t>Spielplan und Ergebniskarte der EM 2024</t>
-  </si>
-  <si>
-    <t>Schema- en scorekaart EK 2024</t>
-  </si>
-  <si>
-    <t>جدول و کارت امتیاز یورو 2024</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -1293,10 +1248,25 @@
     <t>Europe/Berlin</t>
   </si>
   <si>
-    <t>2024ユーロ 日程・スコア</t>
-  </si>
-  <si>
-    <t>2024ドイツユーロ</t>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Eurocopa</t>
+  </si>
+  <si>
+    <t>Europei</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>ユーロ</t>
+  </si>
+  <si>
+    <t>یورو</t>
   </si>
 </sst>
 </file>
@@ -1415,12 +1385,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1944,6 +1908,12 @@
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
   </dxfs>
@@ -1960,8 +1930,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I15" totalsRowShown="0">
-  <autoFilter ref="A1:I15" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I14" totalsRowShown="0">
+  <autoFilter ref="A1:I14" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8CDEDD3-FA49-4AD4-8D9F-D3DFCABC2052}" name="key"/>
     <tableColumn id="2" xr3:uid="{88778009-1F1A-4B0F-BCE2-A71F4DD7CF67}" name="en"/>
@@ -1986,16 +1956,16 @@
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time"/>
     <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="35">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="34">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2032,23 +2002,23 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED8799A6-365F-4A26-BA2F-A641D2C5169B}" name="Table3" displayName="Table3" ref="A1:L52" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED8799A6-365F-4A26-BA2F-A641D2C5169B}" name="Table3" displayName="Table3" ref="A1:L52" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A1:L52" xr:uid="{ED8799A6-365F-4A26-BA2F-A641D2C5169B}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{BAB1D5AD-1C7C-4EFE-82F6-1435AF03D3AC}" name="match" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{A8C9726C-4E60-4863-AFEE-4E5DE76EF2FC}" name="group" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{044764B1-515C-4F7E-A4D8-57FB81597686}" name="date" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{AC9550AC-F5D1-4B32-B429-E544654EF465}" name="home" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{0474FF1E-8BEE-4128-80B3-AFC491D890EE}" name="away" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{EBD9C4C3-BF3C-4727-9B28-98AF2F29BF41}" name="location" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{873889BC-E5CA-49C4-82B0-000FD02CF5A6}" name="location.code" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{BAB1D5AD-1C7C-4EFE-82F6-1435AF03D3AC}" name="match" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{A8C9726C-4E60-4863-AFEE-4E5DE76EF2FC}" name="group" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{044764B1-515C-4F7E-A4D8-57FB81597686}" name="date" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{AC9550AC-F5D1-4B32-B429-E544654EF465}" name="home" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{0474FF1E-8BEE-4128-80B3-AFC491D890EE}" name="away" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{EBD9C4C3-BF3C-4727-9B28-98AF2F29BF41}" name="location" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{873889BC-E5CA-49C4-82B0-000FD02CF5A6}" name="location.code" dataDxfId="20">
       <calculatedColumnFormula>INDEX('#venues'!$A$2:$A$11,MATCH(F2,'#venues'!$B$2:$B$11,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4FCA44E7-14CF-4A6B-B1C2-A4AAE0EAD6FE}" name="home.code" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{1B456C7A-C24D-4957-9047-6049558EC1BB}" name="away.code" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{DBBEC4FC-2936-43AB-BA08-B51FB79E34B4}" name="home.seed" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{0625C7B9-E3D9-441B-BE37-8BB979ACAE6C}" name="away.seed" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{AE9B0C49-E0A5-4932-A009-B682DFA346F3}" name="date.utc" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{4FCA44E7-14CF-4A6B-B1C2-A4AAE0EAD6FE}" name="home.code" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{1B456C7A-C24D-4957-9047-6049558EC1BB}" name="away.code" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{DBBEC4FC-2936-43AB-BA08-B51FB79E34B4}" name="home.seed" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{0625C7B9-E3D9-441B-BE37-8BB979ACAE6C}" name="away.seed" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{AE9B0C49-E0A5-4932-A009-B682DFA346F3}" name="date.utc" dataDxfId="15">
       <calculatedColumnFormula>'#matches'!$C2-TIME(2,0,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2057,12 +2027,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3178B136-3EC2-4340-886E-8333B36E4711}" name="Table5" displayName="Table5" ref="A1:C25" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3178B136-3EC2-4340-886E-8333B36E4711}" name="Table5" displayName="Table5" ref="A1:C25" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:C25" xr:uid="{3178B136-3EC2-4340-886E-8333B36E4711}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{93F9FA11-225D-47EE-BD72-A2464B3A34B2}" name="seed" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{DAFBB0AB-50A5-430D-8FF9-E6D2B5AC0D22}" name="team" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{1D1C8BC8-C8E2-451B-8C51-3E161D3D5C7F}" name="team.lower" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{93F9FA11-225D-47EE-BD72-A2464B3A34B2}" name="seed" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{DAFBB0AB-50A5-430D-8FF9-E6D2B5AC0D22}" name="team" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{1D1C8BC8-C8E2-451B-8C51-3E161D3D5C7F}" name="team.lower" dataDxfId="10">
       <calculatedColumnFormula>LOWER('#seeds'!$B2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2071,22 +2041,22 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1A16B009-D4AC-4613-A3C6-0D259E31D7AA}" name="Table6" displayName="Table6" ref="A1:B86" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1A16B009-D4AC-4613-A3C6-0D259E31D7AA}" name="Table6" displayName="Table6" ref="A1:B86" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:B86" xr:uid="{1A16B009-D4AC-4613-A3C6-0D259E31D7AA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CDD0DBC0-5E6E-4173-A274-6304F51E6CDC}" name="key" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{43497F7A-6B16-4F89-BF79-3045159ABF5F}" name="en" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{CDD0DBC0-5E6E-4173-A274-6304F51E6CDC}" name="key" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{43497F7A-6B16-4F89-BF79-3045159ABF5F}" name="en" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DEC1AC93-5179-4525-B9F9-7702667A847A}" name="Table8" displayName="Table8" ref="A1:B11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DEC1AC93-5179-4525-B9F9-7702667A847A}" name="Table8" displayName="Table8" ref="A1:B11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:B11" xr:uid="{DEC1AC93-5179-4525-B9F9-7702667A847A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C4B1A771-A4B3-4200-BCF4-CEED1AA8D41E}" name="venue" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5598DA99-A772-466E-AF3B-D23CBCB21B1F}" name="city" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C4B1A771-A4B3-4200-BCF4-CEED1AA8D41E}" name="venue" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5598DA99-A772-466E-AF3B-D23CBCB21B1F}" name="city" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2389,13 +2359,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2445,326 +2415,326 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>401</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>402</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>403</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>401</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>404</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>405</v>
       </c>
       <c r="H2" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>416</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" t="s">
-        <v>114</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>415</v>
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2772,57 +2742,28 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +2780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -2857,10 +2798,10 @@
         <v>38</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" t="s">
         <v>39</v>
@@ -2869,10 +2810,10 @@
         <v>40</v>
       </c>
       <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
         <v>77</v>
-      </c>
-      <c r="G1" t="s">
-        <v>78</v>
       </c>
       <c r="H1" t="s">
         <v>68</v>
@@ -3981,7 +3922,7 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D40" s="1">
         <v>45473.791666666664</v>
@@ -4002,7 +3943,7 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D41" s="1">
         <v>45473.666666666664</v>
@@ -4023,7 +3964,7 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D42" s="1">
         <v>45474.791666666664</v>
@@ -4065,7 +4006,7 @@
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D44" s="1">
         <v>45475.666666666664</v>
@@ -4104,10 +4045,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D46" s="1">
         <v>45478.666666666664</v>
@@ -4125,10 +4066,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D47" s="1">
         <v>45478.791666666664</v>
@@ -4146,10 +4087,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D48" s="1">
         <v>45479.791666666664</v>
@@ -4167,10 +4108,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D49" s="1">
         <v>45479.666666666664</v>
@@ -4188,10 +4129,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D50" s="1">
         <v>45482.791666666664</v>
@@ -4209,10 +4150,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D51" s="1">
         <v>45483.791666666664</v>
@@ -4271,7 +4212,7 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4287,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4295,7 +4236,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4319,7 +4260,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4327,7 +4268,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4335,7 +4276,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -4343,7 +4284,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4359,7 +4300,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4375,7 +4316,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -4391,7 +4332,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4407,7 +4348,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4415,7 +4356,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4423,7 +4364,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4431,7 +4372,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4439,7 +4380,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4447,7 +4388,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4463,7 +4404,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4517,85 +4458,85 @@
         <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="J3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="J7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4633,37 +4574,37 @@
         <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4671,19 +4612,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4">
         <v>45457.875</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G2" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F2,'#venues'!$B$2:$B$11,0))</f>
@@ -4715,19 +4656,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6">
         <v>45458.625</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G3" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F3,'#venues'!$B$2:$B$11,0))</f>
@@ -4759,19 +4700,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4">
         <v>45458.75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F4,'#venues'!$B$2:$B$11,0))</f>
@@ -4803,19 +4744,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="6">
         <v>45458.875</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G5" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F5,'#venues'!$B$2:$B$11,0))</f>
@@ -4847,19 +4788,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4">
         <v>45459.875</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G6" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F6,'#venues'!$B$2:$B$11,0))</f>
@@ -4891,19 +4832,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6">
         <v>45459.75</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G7" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F7,'#venues'!$B$2:$B$11,0))</f>
@@ -4935,19 +4876,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="4">
         <v>45459.625</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G8" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F8,'#venues'!$B$2:$B$11,0))</f>
@@ -4979,19 +4920,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="6">
         <v>45460.875</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G9" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F9,'#venues'!$B$2:$B$11,0))</f>
@@ -5023,19 +4964,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="4">
         <v>45460.75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G10" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F10,'#venues'!$B$2:$B$11,0))</f>
@@ -5067,19 +5008,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="6">
         <v>45460.625</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G11" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F11,'#venues'!$B$2:$B$11,0))</f>
@@ -5111,19 +5052,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="4">
         <v>45461.75</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G12" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F12,'#venues'!$B$2:$B$11,0))</f>
@@ -5155,19 +5096,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6">
         <v>45461.875</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G13" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F13,'#venues'!$B$2:$B$11,0))</f>
@@ -5199,19 +5140,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4">
         <v>45462.875</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G14" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F14,'#venues'!$B$2:$B$11,0))</f>
@@ -5243,19 +5184,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="6">
         <v>45462.75</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G15" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F15,'#venues'!$B$2:$B$11,0))</f>
@@ -5287,19 +5228,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4">
         <v>45462.625</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G16" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F16,'#venues'!$B$2:$B$11,0))</f>
@@ -5331,19 +5272,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="6">
         <v>45463.875</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G17" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F17,'#venues'!$B$2:$B$11,0))</f>
@@ -5375,19 +5316,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="4">
         <v>45463.75</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G18" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F18,'#venues'!$B$2:$B$11,0))</f>
@@ -5419,19 +5360,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="6">
         <v>45463.625</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G19" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F19,'#venues'!$B$2:$B$11,0))</f>
@@ -5463,19 +5404,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="4">
         <v>45464.75</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F20,'#venues'!$B$2:$B$11,0))</f>
@@ -5507,19 +5448,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="6">
         <v>45464.875</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G21" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F21,'#venues'!$B$2:$B$11,0))</f>
@@ -5551,19 +5492,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="4">
         <v>45464.625</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G22" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F22,'#venues'!$B$2:$B$11,0))</f>
@@ -5595,19 +5536,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="6">
         <v>45465.875</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G23" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F23,'#venues'!$B$2:$B$11,0))</f>
@@ -5639,19 +5580,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="4">
         <v>45465.75</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G24" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F24,'#venues'!$B$2:$B$11,0))</f>
@@ -5683,19 +5624,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="6">
         <v>45465.625</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G25" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F25,'#venues'!$B$2:$B$11,0))</f>
@@ -5727,19 +5668,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="4">
         <v>45466.875</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G26" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F26,'#venues'!$B$2:$B$11,0))</f>
@@ -5771,19 +5712,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6">
         <v>45466.875</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G27" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F27,'#venues'!$B$2:$B$11,0))</f>
@@ -5815,19 +5756,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="4">
         <v>45467.875</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G28" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F28,'#venues'!$B$2:$B$11,0))</f>
@@ -5859,19 +5800,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="6">
         <v>45467.875</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G29" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F29,'#venues'!$B$2:$B$11,0))</f>
@@ -5903,19 +5844,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="4">
         <v>45468.875</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G30" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F30,'#venues'!$B$2:$B$11,0))</f>
@@ -5947,19 +5888,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="6">
         <v>45468.875</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G31" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F31,'#venues'!$B$2:$B$11,0))</f>
@@ -5991,19 +5932,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4">
         <v>45468.75</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F32,'#venues'!$B$2:$B$11,0))</f>
@@ -6035,19 +5976,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="6">
         <v>45468.75</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G33" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F33,'#venues'!$B$2:$B$11,0))</f>
@@ -6079,19 +6020,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="4">
         <v>45469.75</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G34" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F34,'#venues'!$B$2:$B$11,0))</f>
@@ -6123,19 +6064,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="6">
         <v>45469.75</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G35" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F35,'#venues'!$B$2:$B$11,0))</f>
@@ -6167,19 +6108,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="4">
         <v>45469.875</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G36" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F36,'#venues'!$B$2:$B$11,0))</f>
@@ -6211,19 +6152,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="6">
         <v>45469.875</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G37" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F37,'#venues'!$B$2:$B$11,0))</f>
@@ -6255,19 +6196,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C38" s="4">
         <v>45472.875</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G38" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F38,'#venues'!$B$2:$B$11,0))</f>
@@ -6295,13 +6236,13 @@
         <v>45472.75</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G39" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F39,'#venues'!$B$2:$B$11,0))</f>
@@ -6329,13 +6270,13 @@
         <v>45473.875</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G40" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F40,'#venues'!$B$2:$B$11,0))</f>
@@ -6347,7 +6288,7 @@
         <v>28</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="L40" s="7">
         <f>'#matches'!$C40-TIME(2,0,0)</f>
@@ -6363,13 +6304,13 @@
         <v>45473.75</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G41" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F41,'#venues'!$B$2:$B$11,0))</f>
@@ -6381,7 +6322,7 @@
         <v>26</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="L41" s="8">
         <f>'#matches'!$C41-TIME(2,0,0)</f>
@@ -6397,13 +6338,13 @@
         <v>45474.875</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G42" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F42,'#venues'!$B$2:$B$11,0))</f>
@@ -6415,7 +6356,7 @@
         <v>34</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="L42" s="7">
         <f>'#matches'!$C42-TIME(2,0,0)</f>
@@ -6431,13 +6372,13 @@
         <v>45474.75</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G43" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F43,'#venues'!$B$2:$B$11,0))</f>
@@ -6465,13 +6406,13 @@
         <v>45475.75</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G44" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F44,'#venues'!$B$2:$B$11,0))</f>
@@ -6483,7 +6424,7 @@
         <v>32</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="L44" s="7">
         <f>'#matches'!$C44-TIME(2,0,0)</f>
@@ -6499,13 +6440,13 @@
         <v>45475.875</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G45" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F45,'#venues'!$B$2:$B$11,0))</f>
@@ -6529,19 +6470,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C46" s="4">
         <v>45478.75</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G46" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F46,'#venues'!$B$2:$B$11,0))</f>
@@ -6550,10 +6491,10 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L46" s="7">
         <f>'#matches'!$C46-TIME(2,0,0)</f>
@@ -6569,13 +6510,13 @@
         <v>45478.875</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G47" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F47,'#venues'!$B$2:$B$11,0))</f>
@@ -6584,10 +6525,10 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="L47" s="8">
         <f>'#matches'!$C47-TIME(2,0,0)</f>
@@ -6603,13 +6544,13 @@
         <v>45479.875</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F48,'#venues'!$B$2:$B$11,0))</f>
@@ -6618,10 +6559,10 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="L48" s="7">
         <f>'#matches'!$C48-TIME(2,0,0)</f>
@@ -6637,13 +6578,13 @@
         <v>45479.75</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G49" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F49,'#venues'!$B$2:$B$11,0))</f>
@@ -6652,10 +6593,10 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="L49" s="8">
         <f>'#matches'!$C49-TIME(2,0,0)</f>
@@ -6667,19 +6608,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C50" s="4">
         <v>45482.875</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G50" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F50,'#venues'!$B$2:$B$11,0))</f>
@@ -6688,10 +6629,10 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L50" s="7">
         <f>'#matches'!$C50-TIME(2,0,0)</f>
@@ -6707,13 +6648,13 @@
         <v>45483.875</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G51" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F51,'#venues'!$B$2:$B$11,0))</f>
@@ -6722,10 +6663,10 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="L51" s="8">
         <f>'#matches'!$C51-TIME(2,0,0)</f>
@@ -6737,19 +6678,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C52" s="4">
         <v>45487.875</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F52,'#venues'!$B$2:$B$11,0))</f>
@@ -6799,10 +6740,10 @@
         <v>42</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6822,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>LOWER('#seeds'!$B3)</f>
@@ -6834,7 +6775,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>LOWER('#seeds'!$B4)</f>
@@ -6870,7 +6811,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C7" s="5" t="str">
         <f>LOWER('#seeds'!$B7)</f>
@@ -6882,7 +6823,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>LOWER('#seeds'!$B8)</f>
@@ -6894,7 +6835,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C9" s="5" t="str">
         <f>LOWER('#seeds'!$B9)</f>
@@ -6906,7 +6847,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>LOWER('#seeds'!$B10)</f>
@@ -6930,7 +6871,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>LOWER('#seeds'!$B12)</f>
@@ -6954,7 +6895,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>LOWER('#seeds'!$B14)</f>
@@ -6978,7 +6919,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>LOWER('#seeds'!$B16)</f>
@@ -7002,7 +6943,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>LOWER('#seeds'!$B18)</f>
@@ -7014,7 +6955,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C19" s="5" t="str">
         <f>LOWER('#seeds'!$B19)</f>
@@ -7026,7 +6967,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="str">
         <f>LOWER('#seeds'!$B20)</f>
@@ -7038,7 +6979,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C21" s="5" t="str">
         <f>LOWER('#seeds'!$B21)</f>
@@ -7050,7 +6991,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>LOWER('#seeds'!$B22)</f>
@@ -7062,7 +7003,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C23" s="5" t="str">
         <f>LOWER('#seeds'!$B23)</f>
@@ -7086,7 +7027,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>LOWER('#seeds'!$B25)</f>
@@ -7121,682 +7062,682 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -7825,7 +7766,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7833,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7841,7 +7782,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -7849,7 +7790,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -7857,7 +7798,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -7865,7 +7806,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -7873,7 +7814,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -7881,7 +7822,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -7889,7 +7830,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -7897,7 +7838,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -7905,7 +7846,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/src/stp/database/2024-mens-euro.xlsx
+++ b/src/stp/database/2024-mens-euro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B659DBA-60DF-044D-B6A3-40B55C5C675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA2A6AD-8739-2F42-98E9-3EA92903C001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="432">
   <si>
     <t>A1</t>
   </si>
@@ -1267,6 +1267,78 @@
   </si>
   <si>
     <t>یورو</t>
+  </si>
+  <si>
+    <t>competition-key</t>
+  </si>
+  <si>
+    <t>host-key</t>
+  </si>
+  <si>
+    <t>germany</t>
+  </si>
+  <si>
+    <t>venue-key.1</t>
+  </si>
+  <si>
+    <t>de-berlin</t>
+  </si>
+  <si>
+    <t>venue-key.2</t>
+  </si>
+  <si>
+    <t>de-cologne</t>
+  </si>
+  <si>
+    <t>venue-key.3</t>
+  </si>
+  <si>
+    <t>de-dortmund</t>
+  </si>
+  <si>
+    <t>venue-key.4</t>
+  </si>
+  <si>
+    <t>de-dusseldorf</t>
+  </si>
+  <si>
+    <t>venue-key.5</t>
+  </si>
+  <si>
+    <t>de-frankfurt</t>
+  </si>
+  <si>
+    <t>venue-key.6</t>
+  </si>
+  <si>
+    <t>de-gelsenkirchen</t>
+  </si>
+  <si>
+    <t>venue-key.7</t>
+  </si>
+  <si>
+    <t>de-hamburg</t>
+  </si>
+  <si>
+    <t>venue-key.8</t>
+  </si>
+  <si>
+    <t>de-leipzig</t>
+  </si>
+  <si>
+    <t>venue-key.9</t>
+  </si>
+  <si>
+    <t>de-munich</t>
+  </si>
+  <si>
+    <t>venue-key.10</t>
+  </si>
+  <si>
+    <t>de-stuttgart</t>
+  </si>
+  <si>
+    <t>mens-euro</t>
   </si>
 </sst>
 </file>
@@ -1930,8 +2002,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I14" totalsRowShown="0">
-  <autoFilter ref="A1:I14" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I26" totalsRowShown="0">
+  <autoFilter ref="A1:I26" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8CDEDD3-FA49-4AD4-8D9F-D3DFCABC2052}" name="key"/>
     <tableColumn id="2" xr3:uid="{88778009-1F1A-4B0F-BCE2-A71F4DD7CF67}" name="en"/>
@@ -2359,13 +2431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2412,358 +2484,454 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H2" t="s">
-        <v>406</v>
-      </c>
-      <c r="I2" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" t="s">
-        <v>99</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="C4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" t="s">
+        <v>406</v>
+      </c>
+      <c r="I4" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" t="s">
-        <v>112</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>79</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>143</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>143</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>144</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>143</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>143</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G16" t="s">
         <v>143</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H16" t="s">
         <v>145</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I16" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>423</v>
+      </c>
+      <c r="B23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>425</v>
+      </c>
+      <c r="B24" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>429</v>
+      </c>
+      <c r="B26" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/src/stp/database/2024-mens-euro.xlsx
+++ b/src/stp/database/2024-mens-euro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA2A6AD-8739-2F42-98E9-3EA92903C001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BB8270-A8D2-2A49-B938-03B58B7AA206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" activeTab="8" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="#seeds" sheetId="11" r:id="rId6"/>
     <sheet name="#teams" sheetId="12" r:id="rId7"/>
     <sheet name="#venues" sheetId="13" r:id="rId8"/>
+    <sheet name="Properties" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="438">
   <si>
     <t>A1</t>
   </si>
@@ -1269,76 +1270,94 @@
     <t>یورو</t>
   </si>
   <si>
-    <t>competition-key</t>
-  </si>
-  <si>
-    <t>host-key</t>
-  </si>
-  <si>
     <t>germany</t>
   </si>
   <si>
-    <t>venue-key.1</t>
-  </si>
-  <si>
     <t>de-berlin</t>
   </si>
   <si>
-    <t>venue-key.2</t>
-  </si>
-  <si>
     <t>de-cologne</t>
   </si>
   <si>
-    <t>venue-key.3</t>
-  </si>
-  <si>
     <t>de-dortmund</t>
   </si>
   <si>
-    <t>venue-key.4</t>
-  </si>
-  <si>
     <t>de-dusseldorf</t>
   </si>
   <si>
-    <t>venue-key.5</t>
-  </si>
-  <si>
     <t>de-frankfurt</t>
   </si>
   <si>
-    <t>venue-key.6</t>
-  </si>
-  <si>
     <t>de-gelsenkirchen</t>
   </si>
   <si>
-    <t>venue-key.7</t>
-  </si>
-  <si>
     <t>de-hamburg</t>
   </si>
   <si>
-    <t>venue-key.8</t>
-  </si>
-  <si>
     <t>de-leipzig</t>
   </si>
   <si>
-    <t>venue-key.9</t>
-  </si>
-  <si>
     <t>de-munich</t>
   </si>
   <si>
-    <t>venue-key.10</t>
-  </si>
-  <si>
     <t>de-stuttgart</t>
   </si>
   <si>
     <t>mens-euro</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>color.a</t>
+  </si>
+  <si>
+    <t>color.b</t>
+  </si>
+  <si>
+    <t>color.c</t>
+  </si>
+  <si>
+    <t>color.d</t>
+  </si>
+  <si>
+    <t>color.e</t>
+  </si>
+  <si>
+    <t>color.f</t>
+  </si>
+  <si>
+    <t>venue.01</t>
+  </si>
+  <si>
+    <t>venue.02</t>
+  </si>
+  <si>
+    <t>venue.03</t>
+  </si>
+  <si>
+    <t>venue.04</t>
+  </si>
+  <si>
+    <t>venue.05</t>
+  </si>
+  <si>
+    <t>venue.06</t>
+  </si>
+  <si>
+    <t>venue.07</t>
+  </si>
+  <si>
+    <t>venue.08</t>
+  </si>
+  <si>
+    <t>venue.09</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>host</t>
   </si>
 </sst>
 </file>
@@ -2002,8 +2021,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I26" totalsRowShown="0">
-  <autoFilter ref="A1:I26" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I14" totalsRowShown="0">
+  <autoFilter ref="A1:I14" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8CDEDD3-FA49-4AD4-8D9F-D3DFCABC2052}" name="key"/>
     <tableColumn id="2" xr3:uid="{88778009-1F1A-4B0F-BCE2-A71F4DD7CF67}" name="en"/>
@@ -2129,6 +2148,21 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C4B1A771-A4B3-4200-BCF4-CEED1AA8D41E}" name="venue" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{5598DA99-A772-466E-AF3B-D23CBCB21B1F}" name="city" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CE1999EF-C198-E249-A99B-93FB7583CDC6}" name="Properties" displayName="Properties" ref="A1:C20" totalsRowShown="0">
+  <autoFilter ref="A1:C20" xr:uid="{CE1999EF-C198-E249-A99B-93FB7583CDC6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
+    <sortCondition ref="A1:A20"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{81B4E8B7-62B6-2B45-B333-9BE0D0A746E2}" name="key"/>
+    <tableColumn id="2" xr3:uid="{FC99CEF4-ECDD-DE4F-9CC3-2DE32B0CA2B0}" name="value"/>
+    <tableColumn id="3" xr3:uid="{8B9B597C-9DD5-CE40-9966-75205DF3B203}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2431,13 +2465,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2484,454 +2518,358 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>401</v>
+      </c>
+      <c r="C2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I2" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>410</v>
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G4" t="s">
-        <v>405</v>
-      </c>
-      <c r="H4" t="s">
-        <v>406</v>
-      </c>
-      <c r="I4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>399</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" t="s">
-        <v>145</v>
-      </c>
-      <c r="I16" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>411</v>
-      </c>
-      <c r="B17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>413</v>
-      </c>
-      <c r="B18" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>415</v>
-      </c>
-      <c r="B19" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>417</v>
-      </c>
-      <c r="B20" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>419</v>
-      </c>
-      <c r="B21" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>421</v>
-      </c>
-      <c r="B22" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>423</v>
-      </c>
-      <c r="B23" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>425</v>
-      </c>
-      <c r="B24" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>427</v>
-      </c>
-      <c r="B25" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>429</v>
-      </c>
-      <c r="B26" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -4589,7 +4527,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8024,4 +7962,208 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C6A97F-63BE-B44C-82D1-58175DA869A9}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>432</v>
+      </c>
+      <c r="B16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/src/stp/database/2024-mens-euro.xlsx
+++ b/src/stp/database/2024-mens-euro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15D2B28-AB95-E04E-BDC1-F13591DE19CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1766E9A-765C-5643-AFAE-1E58EE0A99DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="141">
   <si>
     <t>key</t>
   </si>
@@ -449,6 +449,15 @@
   </si>
   <si>
     <t>CZE</t>
+  </si>
+  <si>
+    <t>home-known</t>
+  </si>
+  <si>
+    <t>away-known</t>
+  </si>
+  <si>
+    <t>after-extra-time</t>
   </si>
 </sst>
 </file>
@@ -545,22 +554,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="matches" displayName="matches" ref="A1:K52" totalsRowShown="0">
-  <autoFilter ref="A1:K52" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="matches" displayName="matches" ref="A1:N52" totalsRowShown="0">
+  <autoFilter ref="A1:N52" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="match"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="time"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="venue" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="home-team" dataDxfId="5">
-      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="home-known" dataDxfId="5">
+      <calculatedColumnFormula>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="away-team" dataDxfId="4">
-      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="away-known" dataDxfId="4">
+      <calculatedColumnFormula>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="13" xr3:uid="{5CFBBF32-D250-7949-B851-077118632D43}" name="home-team"/>
+    <tableColumn id="12" xr3:uid="{250C00C1-0E59-E24A-8741-DEED3D8E598C}" name="away-team"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="home-score" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="away-score" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{826502EF-8C81-2046-A6CA-7C835566309E}" name="after-extra-time"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="home-tiebreaker" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="away-tiebreaker" dataDxfId="0"/>
   </tableColumns>
@@ -1080,22 +1092,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:K52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1112,25 +1125,34 @@
         <v>51</v>
       </c>
       <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1147,21 +1169,15 @@
         <v>9</v>
       </c>
       <c r="F2" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>GER</v>
       </c>
       <c r="G2" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>SCO</v>
       </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1178,21 +1194,15 @@
         <v>2</v>
       </c>
       <c r="F3" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>HUN</v>
       </c>
       <c r="G3" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>SUI</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1209,21 +1219,15 @@
         <v>1</v>
       </c>
       <c r="F4" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ESP</v>
       </c>
       <c r="G4" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CRO</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1240,21 +1244,15 @@
         <v>3</v>
       </c>
       <c r="F5" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ITA</v>
       </c>
       <c r="G5" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>ALB</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1271,21 +1269,15 @@
         <v>6</v>
       </c>
       <c r="F6" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SRB</v>
       </c>
       <c r="G6" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>ENG</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1302,21 +1294,15 @@
         <v>10</v>
       </c>
       <c r="F7" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SVN</v>
       </c>
       <c r="G7" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>DEN</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1333,21 +1319,15 @@
         <v>7</v>
       </c>
       <c r="F8" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>POL</v>
       </c>
       <c r="G8" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>NED</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1364,21 +1344,15 @@
         <v>4</v>
       </c>
       <c r="F9" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>AUT</v>
       </c>
       <c r="G9" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>FRA</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1395,21 +1369,15 @@
         <v>5</v>
       </c>
       <c r="F10" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BEL</v>
       </c>
       <c r="G10" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>SVK</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1426,21 +1394,15 @@
         <v>9</v>
       </c>
       <c r="F11" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ROM</v>
       </c>
       <c r="G11" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>UKR</v>
       </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1457,21 +1419,15 @@
         <v>3</v>
       </c>
       <c r="F12" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>TUR</v>
       </c>
       <c r="G12" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>GEO</v>
       </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1488,21 +1444,15 @@
         <v>8</v>
       </c>
       <c r="F13" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>POR</v>
       </c>
       <c r="G13" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CZE</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1519,21 +1469,15 @@
         <v>2</v>
       </c>
       <c r="F14" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SCO</v>
       </c>
       <c r="G14" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>SUI</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1550,21 +1494,15 @@
         <v>10</v>
       </c>
       <c r="F15" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>GER</v>
       </c>
       <c r="G15" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>HUN</v>
       </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1581,21 +1519,15 @@
         <v>7</v>
       </c>
       <c r="F16" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CRO</v>
       </c>
       <c r="G16" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>ALB</v>
       </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1612,21 +1544,15 @@
         <v>6</v>
       </c>
       <c r="F17" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ESP</v>
       </c>
       <c r="G17" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>ITA</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1643,21 +1569,15 @@
         <v>5</v>
       </c>
       <c r="F18" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>DEN</v>
       </c>
       <c r="G18" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>ENG</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1674,21 +1594,15 @@
         <v>9</v>
       </c>
       <c r="F19" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SVN</v>
       </c>
       <c r="G19" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>SRB</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1705,21 +1619,15 @@
         <v>1</v>
       </c>
       <c r="F20" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>POL</v>
       </c>
       <c r="G20" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>AUT</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1736,21 +1644,15 @@
         <v>8</v>
       </c>
       <c r="F21" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>NED</v>
       </c>
       <c r="G21" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>FRA</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1767,21 +1669,15 @@
         <v>4</v>
       </c>
       <c r="F22" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SVK</v>
       </c>
       <c r="G22" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>UKR</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1798,21 +1694,15 @@
         <v>2</v>
       </c>
       <c r="F23" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BEL</v>
       </c>
       <c r="G23" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>ROM</v>
       </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1829,21 +1719,15 @@
         <v>3</v>
       </c>
       <c r="F24" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>TUR</v>
       </c>
       <c r="G24" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>POR</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1860,21 +1744,15 @@
         <v>7</v>
       </c>
       <c r="F25" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>GEO</v>
       </c>
       <c r="G25" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CZE</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1891,21 +1769,15 @@
         <v>5</v>
       </c>
       <c r="F26" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SUI</v>
       </c>
       <c r="G26" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>GER</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1922,21 +1794,15 @@
         <v>10</v>
       </c>
       <c r="F27" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SCO</v>
       </c>
       <c r="G27" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>HUN</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1953,21 +1819,15 @@
         <v>4</v>
       </c>
       <c r="F28" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ALB</v>
       </c>
       <c r="G28" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>ESP</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1984,21 +1844,15 @@
         <v>8</v>
       </c>
       <c r="F29" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CRO</v>
       </c>
       <c r="G29" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>ITA</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2015,21 +1869,15 @@
         <v>2</v>
       </c>
       <c r="F30" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ENG</v>
       </c>
       <c r="G30" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>SVN</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2046,21 +1894,15 @@
         <v>9</v>
       </c>
       <c r="F31" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>DEN</v>
       </c>
       <c r="G31" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>SRB</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2077,21 +1919,15 @@
         <v>1</v>
       </c>
       <c r="F32" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>NED</v>
       </c>
       <c r="G32" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>AUT</v>
       </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2108,21 +1944,15 @@
         <v>3</v>
       </c>
       <c r="F33" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>FRA</v>
       </c>
       <c r="G33" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>POL</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2139,21 +1969,15 @@
         <v>5</v>
       </c>
       <c r="F34" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SVK</v>
       </c>
       <c r="G34" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>ROM</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2170,21 +1994,15 @@
         <v>10</v>
       </c>
       <c r="F35" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>UKR</v>
       </c>
       <c r="G35" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>BEL</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2201,21 +2019,15 @@
         <v>6</v>
       </c>
       <c r="F36" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>GEO</v>
       </c>
       <c r="G36" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>POR</v>
       </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2232,21 +2044,15 @@
         <v>7</v>
       </c>
       <c r="F37" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CZE</v>
       </c>
       <c r="G37" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>TUR</v>
       </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2262,20 +2068,16 @@
       <c r="E38">
         <v>3</v>
       </c>
-      <c r="F38" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2291,20 +2093,16 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G39" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2320,20 +2118,16 @@
       <c r="E40">
         <v>2</v>
       </c>
-      <c r="F40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2349,20 +2143,16 @@
       <c r="E41">
         <v>6</v>
       </c>
-      <c r="F41" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2378,26 +2168,16 @@
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="F42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2413,20 +2193,16 @@
       <c r="E43">
         <v>4</v>
       </c>
-      <c r="F43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2442,20 +2218,16 @@
       <c r="E44">
         <v>9</v>
       </c>
-      <c r="F44" t="s">
-        <v>108</v>
-      </c>
-      <c r="G44" t="s">
-        <v>109</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F44" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2471,20 +2243,16 @@
       <c r="E45">
         <v>8</v>
       </c>
-      <c r="F45" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F45" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2500,20 +2268,16 @@
       <c r="E46">
         <v>10</v>
       </c>
-      <c r="F46" t="s">
-        <v>96</v>
-      </c>
-      <c r="G46" t="s">
-        <v>88</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F46" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2529,26 +2293,16 @@
       <c r="E47">
         <v>7</v>
       </c>
-      <c r="F47" t="s">
-        <v>104</v>
-      </c>
-      <c r="G47" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>5</v>
-      </c>
-      <c r="K47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F47" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2564,20 +2318,16 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" t="s">
-        <v>113</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F48" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2593,26 +2343,16 @@
       <c r="E49">
         <v>4</v>
       </c>
-      <c r="F49" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" t="s">
-        <v>84</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>5</v>
-      </c>
-      <c r="K49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F49" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2628,20 +2368,16 @@
       <c r="E50">
         <v>9</v>
       </c>
-      <c r="F50" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F50" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2657,20 +2393,16 @@
       <c r="E51">
         <v>3</v>
       </c>
-      <c r="F51" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" t="s">
-        <v>92</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F51" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2686,17 +2418,13 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" t="s">
-        <v>96</v>
-      </c>
-      <c r="G52" t="s">
-        <v>92</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
+      <c r="F52" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
